--- a/biology/Botanique/Cheilocostus_speciosus/Cheilocostus_speciosus.xlsx
+++ b/biology/Botanique/Cheilocostus_speciosus/Cheilocostus_speciosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cheilocostus speciosus est une espèce de plantes à fleurs du genre Cheilocostus de la famille des Costaceae. Cette espèce est encore connue sous son précédent nom scientifique, Costus speciosus. En effet, la réforme du genre Costus est récente (2006).
 C'est une espèce asiatique. Elle est originaire des forêts humides de la Chine méridionale, Taïwan, Bhoutan, Inde, Népal, Sri Lanka, Cambodge, Laos, Viêt Nam, Myanmar, Thaïlande, Malaisie, Papouasie-Nouvelle-Guinée, Philippines, Australie (Queensland), Indonésie (en particulier les grandes îles de la Sonde).
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette plante peut avoir de 2 à 3 m de hauteur. Ses fleurs sont rouges avec du blanc[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette plante peut avoir de 2 à 3 m de hauteur. Ses fleurs sont rouges avec du blanc.
 Cheilocostus speciosus (ou Costus speciosus) est probablement la plus connue des espèces cultivées des  Costaceae. Les Costaceae se différencient des gingembres en ayant une seule rangée de feuilles disposées en spirale.
 L'espèce se reproduit de façon végétative par rhizomes et les oiseaux dispersent les graines quand elles se nourrissent des fruits.
 Bien qu'elle soit originaire de nombreuses îles du Pacifique c'est une espèce introduite envahissante sur les autres îles, comme les îles Cook, Fidji, et Hawaii.
@@ -523,7 +537,7 @@
 en allemand : Kreppingwer ;
 en anglais : cane-reed, crepe-ginger, Malay ginger, wild ginger ;
 en espagnol : Cana de la India ;
-en français : canne d'eau, coste[2], gingembre crêpe ;
+en français : canne d'eau, coste, gingembre crêpe ;
 en hindi : keukand, keu, kust ;
 en sanskrit : kustha, kashmira, kemuka, shura, pushkarmu- la ;
 en malais: setawar.</t>
@@ -554,7 +568,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante se trouve dans le fossé routier, zones basses de forêt. 
 La saison de floraison commence après la saison des pluies, octobre à décembre.
@@ -591,9 +607,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (26 sept 2011)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (26 sept 2011) :
 Amomum arboreum Lour., Fl. Cochinch.: 7 (1790).
 Amomum hirsutum Lam., Tabl. Encycl. 1: 134 (1791).
 Banksea speciosa J.König in A.J.Retzius, Observ. Bot. 3: 75 (1783).
